--- a/EmployeeData.xlsx
+++ b/EmployeeData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\source\repos\TeaAddictedGeek\SQLCreate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050D91C1-EAA4-4DFB-B64A-6F85270C94CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73973167-2724-42BA-99F2-B0E334651B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,12 +63,6 @@
     <t>Jones</t>
   </si>
   <si>
-    <t>CITY</t>
-  </si>
-  <si>
-    <t>STATE_ABBR</t>
-  </si>
-  <si>
     <t>DOB</t>
   </si>
   <si>
@@ -207,10 +201,16 @@
     <t>Strange</t>
   </si>
   <si>
-    <t>FIRST_NAME</t>
-  </si>
-  <si>
-    <t>LAST_NAME</t>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
   </si>
 </sst>
 </file>
@@ -948,9 +948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -962,33 +960,33 @@
   <sheetData>
     <row r="1" spans="1:6" ht="93" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -1000,13 +998,13 @@
     </row>
     <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -1018,10 +1016,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -1036,10 +1034,10 @@
     </row>
     <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -1054,10 +1052,10 @@
     </row>
     <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
@@ -1072,13 +1070,13 @@
     </row>
     <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
@@ -1090,13 +1088,13 @@
     </row>
     <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>8</v>
@@ -1108,10 +1106,10 @@
     </row>
     <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -1126,10 +1124,10 @@
     </row>
     <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -1144,13 +1142,13 @@
     </row>
     <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>8</v>
@@ -1165,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
@@ -1186,7 +1184,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>8</v>
@@ -1198,10 +1196,10 @@
     </row>
     <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
@@ -1216,13 +1214,13 @@
     </row>
     <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>8</v>
@@ -1234,7 +1232,7 @@
     </row>
     <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>12</v>
@@ -1252,10 +1250,10 @@
     </row>
     <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
@@ -1270,10 +1268,10 @@
     </row>
     <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
@@ -1291,7 +1289,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
@@ -1309,10 +1307,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>7</v>
@@ -1327,10 +1325,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>7</v>
@@ -1342,13 +1340,13 @@
     </row>
     <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>7</v>
@@ -1363,10 +1361,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>7</v>
@@ -1378,13 +1376,13 @@
     </row>
     <row r="24" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>7</v>
@@ -1396,13 +1394,13 @@
     </row>
     <row r="25" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>7</v>
